--- a/output/analysis/dataset=c or tdc-b, testing scaling or not/scaling_minmax.xlsx
+++ b/output/analysis/dataset=c or tdc-b, testing scaling or not/scaling_minmax.xlsx
@@ -21,9 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="27">
   <si>
     <t xml:space="preserve">feature=cbf, sf=none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature=c_skip, sf=none</t>
   </si>
   <si>
     <t xml:space="preserve">feature=tdf, sf=none</t>
@@ -50,13 +53,22 @@
     <t xml:space="preserve">feature=cbf, sf=kb</t>
   </si>
   <si>
+    <t xml:space="preserve">feature=c_skip, sf=kb</t>
+  </si>
+  <si>
     <t xml:space="preserve">feature=tdf, sf=kb</t>
   </si>
   <si>
     <t xml:space="preserve">feature=cbf, sf=sfm</t>
   </si>
   <si>
+    <t xml:space="preserve">feature=c_skip, sf=sf</t>
+  </si>
+  <si>
     <t xml:space="preserve">feature=tdf, sf=sfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature-c_skip, sf=none</t>
   </si>
   <si>
     <t xml:space="preserve">feature=tdf, sf-none</t>
@@ -80,7 +92,13 @@
     <t xml:space="preserve">for data from td :</t>
   </si>
   <si>
+    <t xml:space="preserve">feature-c_skip, sf=kb</t>
+  </si>
+  <si>
     <t xml:space="preserve">feature=tdf, sf-kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature-c_skip, sf=sfm</t>
   </si>
   <si>
     <t xml:space="preserve">feature=tdf, sf-sfm</t>
@@ -350,16 +368,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,10 +470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,31 +493,46 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,17 +555,32 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>305</v>
       </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -558,21 +602,36 @@
         <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.69</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1520</v>
       </c>
+      <c r="M4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1520</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.66</v>
@@ -587,53 +646,83 @@
         <v>1825</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.68</v>
+        <v>0.56</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1825</v>
       </c>
+      <c r="M5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1825</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,17 +745,32 @@
         <v>0</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -688,21 +792,36 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0.9</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="M10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.79</v>
@@ -717,53 +836,83 @@
         <v>609</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="I11" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0.81</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0.79</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>609</v>
       </c>
+      <c r="M11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>609</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,17 +935,32 @@
         <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>305</v>
       </c>
+      <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -821,7 +985,7 @@
         <v>0.96</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0.92</v>
@@ -829,10 +993,25 @@
       <c r="K16" s="0" t="n">
         <v>1520</v>
       </c>
+      <c r="M16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1520</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.78</v>
@@ -847,53 +1026,83 @@
         <v>1825</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>1825</v>
       </c>
+      <c r="M17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>1825</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,17 +1125,32 @@
         <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="M21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -954,15 +1178,30 @@
         <v>0.89</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="M22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.81</v>
@@ -977,53 +1216,83 @@
         <v>609</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>609</v>
       </c>
+      <c r="M23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>609</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,17 +1315,32 @@
         <v>0</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>305</v>
       </c>
+      <c r="M27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -1081,7 +1365,7 @@
         <v>0.96</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0.93</v>
@@ -1089,10 +1373,25 @@
       <c r="K28" s="0" t="n">
         <v>1520</v>
       </c>
+      <c r="M28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>1520</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.79</v>
@@ -1107,53 +1406,83 @@
         <v>1825</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>1825</v>
       </c>
+      <c r="M29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>1825</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,17 +1505,32 @@
         <v>0</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -1211,18 +1555,33 @@
         <v>0.98</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>500</v>
       </c>
+      <c r="M34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.8</v>
@@ -1237,18 +1596,33 @@
         <v>609</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H35" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>609</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="O35" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="P35" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="Q35" s="0" t="n">
         <v>609</v>
       </c>
     </row>
@@ -1268,26 +1642,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B105" activeCellId="0" sqref="B105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,33 +1675,48 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,15 +1739,30 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>0.47</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>402</v>
       </c>
     </row>
@@ -1376,17 +1786,32 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1408,21 +1833,36 @@
         <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1872</v>
       </c>
+      <c r="M5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1872</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.7</v>
@@ -1437,53 +1877,83 @@
         <v>3833</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0.74</v>
-      </c>
       <c r="J6" s="0" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>3833</v>
       </c>
+      <c r="M6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>3833</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,15 +1976,30 @@
         <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J11" s="0" t="n">
         <v>0.49</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="K11" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>0.69</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>0.58</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>285</v>
       </c>
     </row>
@@ -1549,6 +2034,21 @@
       <c r="K12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1570,21 +2070,36 @@
         <v>2</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1521</v>
       </c>
+      <c r="M13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>1521</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.48</v>
@@ -1599,53 +2114,83 @@
         <v>1806</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>1806</v>
       </c>
+      <c r="M14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>1806</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,15 +2213,30 @@
         <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
         <v>0.19</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.36</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>117</v>
       </c>
     </row>
@@ -1700,17 +2260,32 @@
         <v>1</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="M20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1732,10 +2307,10 @@
         <v>2</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0.63</v>
@@ -1743,10 +2318,25 @@
       <c r="K21" s="0" t="n">
         <v>351</v>
       </c>
+      <c r="M21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.57</v>
@@ -1761,53 +2351,83 @@
         <v>2027</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0.57</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2027</v>
       </c>
+      <c r="M22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>2027</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,15 +2450,30 @@
         <v>0</v>
       </c>
       <c r="H26" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
         <v>0.58</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>0.54</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>165</v>
       </c>
     </row>
@@ -1862,17 +2497,32 @@
         <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0.87</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="M27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -1894,21 +2544,36 @@
         <v>2</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>612</v>
       </c>
+      <c r="M28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.76</v>
@@ -1923,53 +2588,83 @@
         <v>1278</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>1278</v>
       </c>
+      <c r="M29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>1278</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,15 +2687,30 @@
         <v>0</v>
       </c>
       <c r="H34" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
         <v>0.77</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="O34" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="P34" s="0" t="n">
         <v>0.69</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="Q34" s="0" t="n">
         <v>129</v>
       </c>
     </row>
@@ -2035,6 +2745,21 @@
       <c r="K35" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -2056,21 +2781,36 @@
         <v>2</v>
       </c>
       <c r="H36" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>0.92</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>0.91</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>499</v>
       </c>
+      <c r="M36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.57</v>
@@ -2085,53 +2825,83 @@
         <v>628</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>0.56</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>628</v>
       </c>
+      <c r="M37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>628</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,12 +2927,27 @@
         <v>0.18</v>
       </c>
       <c r="I42" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O42" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="P42" s="0" t="n">
         <v>0.21</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="Q42" s="0" t="n">
         <v>36</v>
       </c>
     </row>
@@ -2186,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>0.87</v>
@@ -2197,6 +2982,21 @@
       <c r="K43" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="M43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -2218,21 +3018,36 @@
         <v>2</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.71</v>
+        <v>0.81</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="M44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.57</v>
@@ -2247,53 +3062,83 @@
         <v>650</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="I45" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J45" s="0" t="n">
         <v>0.61</v>
-      </c>
-      <c r="J45" s="0" t="n">
-        <v>0.59</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>650</v>
       </c>
+      <c r="M45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,15 +3161,30 @@
         <v>0</v>
       </c>
       <c r="H50" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="0" t="n">
         <v>0.57</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="O50" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="P50" s="0" t="n">
         <v>0.59</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="Q50" s="0" t="n">
         <v>402</v>
       </c>
     </row>
@@ -2351,14 +3211,29 @@
         <v>0.94</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="M51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -2380,21 +3255,36 @@
         <v>2</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>0.91</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>1872</v>
       </c>
+      <c r="M52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>1872</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0.81</v>
@@ -2409,53 +3299,83 @@
         <v>3833</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>3833</v>
       </c>
+      <c r="M53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>3833</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,15 +3398,30 @@
         <v>0</v>
       </c>
       <c r="H58" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="O58" s="0" t="n">
         <v>0.73</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="P58" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="Q58" s="0" t="n">
         <v>285</v>
       </c>
     </row>
@@ -2521,6 +3456,21 @@
       <c r="K59" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -2542,21 +3492,36 @@
         <v>2</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>1521</v>
       </c>
+      <c r="M60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>1521</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0.54</v>
@@ -2571,53 +3536,83 @@
         <v>1806</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0.52</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>1806</v>
       </c>
+      <c r="M61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>1806</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,15 +3635,30 @@
         <v>0</v>
       </c>
       <c r="H66" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="O66" s="0" t="n">
         <v>0.36</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="P66" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="Q66" s="0" t="n">
         <v>117</v>
       </c>
     </row>
@@ -2675,14 +3685,29 @@
         <v>0.95</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="M67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -2704,21 +3729,36 @@
         <v>2</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>351</v>
       </c>
+      <c r="M68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0.69</v>
@@ -2733,53 +3773,83 @@
         <v>2027</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>2027</v>
       </c>
+      <c r="M69" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>2027</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,15 +3872,30 @@
         <v>0</v>
       </c>
       <c r="H73" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="0" t="n">
         <v>0.63</v>
       </c>
-      <c r="I73" s="0" t="n">
+      <c r="O73" s="0" t="n">
         <v>0.63</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="P73" s="0" t="n">
         <v>0.63</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="Q73" s="0" t="n">
         <v>165</v>
       </c>
     </row>
@@ -2834,17 +3919,32 @@
         <v>1</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="M74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P74" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q74" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -2866,7 +3966,7 @@
         <v>2</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="I75" s="0" t="n">
         <v>0.93</v>
@@ -2877,10 +3977,25 @@
       <c r="K75" s="0" t="n">
         <v>612</v>
       </c>
+      <c r="M75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P75" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q75" s="0" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>0.84</v>
@@ -2895,53 +4010,83 @@
         <v>1278</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>0.81</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>1278</v>
       </c>
+      <c r="M76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="Q76" s="0" t="n">
+        <v>1278</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,15 +4109,30 @@
         <v>0</v>
       </c>
       <c r="H81" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="0" t="n">
         <v>0.73</v>
       </c>
-      <c r="I81" s="0" t="n">
+      <c r="O81" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="J81" s="0" t="n">
+      <c r="P81" s="0" t="n">
         <v>0.72</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="Q81" s="0" t="n">
         <v>129</v>
       </c>
     </row>
@@ -3007,6 +4167,21 @@
       <c r="K82" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -3031,18 +4206,33 @@
         <v>0.93</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>499</v>
       </c>
+      <c r="M83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0.56</v>
@@ -3057,53 +4247,83 @@
         <v>628</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>628</v>
       </c>
+      <c r="M84" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N84" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <v>628</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q88" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,15 +4346,30 @@
         <v>0</v>
       </c>
       <c r="H89" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="M89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="I89" s="0" t="n">
+      <c r="O89" s="0" t="n">
         <v>0.33</v>
       </c>
-      <c r="J89" s="0" t="n">
+      <c r="P89" s="0" t="n">
         <v>0.32</v>
       </c>
-      <c r="K89" s="0" t="n">
+      <c r="Q89" s="0" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3158,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J90" s="0" t="n">
         <v>0.91</v>
@@ -3169,6 +4404,21 @@
       <c r="K90" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="M90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P90" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
@@ -3190,21 +4440,36 @@
         <v>2</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>0.94</v>
+        <v>0.87</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="M91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0.68</v>
@@ -3219,53 +4484,83 @@
         <v>650</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H92" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I92" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="I92" s="0" t="n">
-        <v>0.71</v>
-      </c>
       <c r="J92" s="0" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>650</v>
       </c>
+      <c r="M92" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P92" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O96" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q96" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,15 +4583,30 @@
         <v>0</v>
       </c>
       <c r="H97" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" s="0" t="n">
         <v>0.58</v>
       </c>
-      <c r="I97" s="0" t="n">
+      <c r="O97" s="0" t="n">
         <v>0.68</v>
       </c>
-      <c r="J97" s="0" t="n">
+      <c r="P97" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="K97" s="0" t="n">
+      <c r="Q97" s="0" t="n">
         <v>402</v>
       </c>
     </row>
@@ -3323,14 +4633,29 @@
         <v>0.95</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="M98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O98" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P98" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q98" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -3352,21 +4677,36 @@
         <v>2</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="I99" s="0" t="n">
         <v>0.91</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>1872</v>
       </c>
+      <c r="M99" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O99" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P99" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q99" s="0" t="n">
+        <v>1872</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0.76</v>
@@ -3381,53 +4721,83 @@
         <v>3833</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>3833</v>
       </c>
+      <c r="M100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N100" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O100" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P100" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="Q100" s="0" t="n">
+        <v>3833</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N104" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O104" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P104" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q104" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,15 +4820,30 @@
         <v>0</v>
       </c>
       <c r="H105" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="M105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="I105" s="0" t="n">
+      <c r="O105" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="J105" s="0" t="n">
+      <c r="P105" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="K105" s="0" t="n">
+      <c r="Q105" s="0" t="n">
         <v>285</v>
       </c>
     </row>
@@ -3493,6 +4878,21 @@
       <c r="K106" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
@@ -3514,21 +4914,36 @@
         <v>2</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1521</v>
       </c>
+      <c r="M107" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O107" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P107" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q107" s="0" t="n">
+        <v>1521</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0.5</v>
@@ -3543,53 +4958,83 @@
         <v>1806</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>1806</v>
       </c>
+      <c r="M108" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N108" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O108" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P108" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Q108" s="0" t="n">
+        <v>1806</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N112" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O112" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P112" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q112" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,15 +5057,30 @@
         <v>0</v>
       </c>
       <c r="H113" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="M113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="I113" s="0" t="n">
+      <c r="O113" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="J113" s="0" t="n">
+      <c r="P113" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="K113" s="0" t="n">
+      <c r="Q113" s="0" t="n">
         <v>117</v>
       </c>
     </row>
@@ -3644,17 +5104,32 @@
         <v>1</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="M114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O114" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P114" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q114" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -3676,21 +5151,36 @@
         <v>2</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>351</v>
       </c>
+      <c r="M115" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O115" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="P115" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q115" s="0" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0.61</v>
@@ -3705,53 +5195,83 @@
         <v>2027</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>2027</v>
       </c>
+      <c r="M116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N116" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O116" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="P116" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="Q116" s="0" t="n">
+        <v>2027</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="M118" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N119" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O119" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P119" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q119" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,15 +5294,30 @@
         <v>0</v>
       </c>
       <c r="H120" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="M120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="I120" s="0" t="n">
+      <c r="O120" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="J120" s="0" t="n">
+      <c r="P120" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="K120" s="0" t="n">
+      <c r="Q120" s="0" t="n">
         <v>165</v>
       </c>
     </row>
@@ -3809,14 +5344,29 @@
         <v>0.95</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="M121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -3838,10 +5388,10 @@
         <v>2</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>0.91</v>
@@ -3849,10 +5399,25 @@
       <c r="K122" s="0" t="n">
         <v>612</v>
       </c>
+      <c r="M122" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q122" s="0" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>0.83</v>
@@ -3867,13 +5432,13 @@
         <v>1278</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>0.82</v>
@@ -3881,39 +5446,69 @@
       <c r="K123" s="0" t="n">
         <v>1278</v>
       </c>
+      <c r="M123" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <v>1278</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="M126" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O127" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P127" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q127" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,15 +5531,30 @@
         <v>0</v>
       </c>
       <c r="H128" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="M128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" s="0" t="n">
         <v>0.72</v>
       </c>
-      <c r="I128" s="0" t="n">
+      <c r="O128" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="J128" s="0" t="n">
+      <c r="P128" s="0" t="n">
         <v>0.73</v>
       </c>
-      <c r="K128" s="0" t="n">
+      <c r="Q128" s="0" t="n">
         <v>129</v>
       </c>
     </row>
@@ -3979,6 +5589,21 @@
       <c r="K129" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -4000,21 +5625,36 @@
         <v>2</v>
       </c>
       <c r="H130" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J130" s="0" t="n">
         <v>0.94</v>
-      </c>
-      <c r="I130" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J130" s="0" t="n">
-        <v>0.93</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>499</v>
       </c>
+      <c r="M130" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O130" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P130" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q130" s="0" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0.56</v>
@@ -4029,53 +5669,83 @@
         <v>628</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>0.56</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>0.56</v>
+        <v>0.57</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>628</v>
       </c>
+      <c r="M131" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N131" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O131" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="Q131" s="0" t="n">
+        <v>628</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="M134" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="N135" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O135" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="P135" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q135" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4098,15 +5768,30 @@
         <v>0</v>
       </c>
       <c r="H136" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="M136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" s="0" t="n">
         <v>0.32</v>
       </c>
-      <c r="I136" s="0" t="n">
+      <c r="O136" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="J136" s="0" t="n">
+      <c r="P136" s="0" t="n">
         <v>0.35</v>
       </c>
-      <c r="K136" s="0" t="n">
+      <c r="Q136" s="0" t="n">
         <v>36</v>
       </c>
     </row>
@@ -4130,10 +5815,10 @@
         <v>1</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J137" s="0" t="n">
         <v>0.92</v>
@@ -4141,6 +5826,21 @@
       <c r="K137" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="M137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O137" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P137" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q137" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
@@ -4165,18 +5865,33 @@
         <v>0.73</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="M138" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N138" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O138" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P138" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Q138" s="0" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0.67</v>
@@ -4191,25 +5906,40 @@
         <v>650</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H139" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I139" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="I139" s="0" t="n">
+      <c r="J139" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="M139" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N139" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O139" s="0" t="n">
         <v>0.74</v>
       </c>
-      <c r="J139" s="0" t="n">
+      <c r="P139" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="K139" s="0" t="n">
+      <c r="Q139" s="0" t="n">
         <v>650</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/output/analysis/dataset=c or tdc-b, testing scaling or not/scaling_minmax.xlsx
+++ b/output/analysis/dataset=c or tdc-b, testing scaling or not/scaling_minmax.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data=c" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="data=tdc-b" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="data=td" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="28">
   <si>
     <t xml:space="preserve">feature=cbf, sf=none</t>
   </si>
@@ -102,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve">feature=tdf, sf-sfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature=td, sf=none</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1648,7 @@
   </sheetPr>
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95"/>
     </sheetView>
   </sheetViews>
@@ -1658,7 +1662,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.52"/>
@@ -5945,4 +5949,210 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>14396</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>18587</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>6196</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/output/analysis/dataset=c or tdc-b, testing scaling or not/scaling_minmax.xlsx
+++ b/output/analysis/dataset=c or tdc-b, testing scaling or not/scaling_minmax.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data=c" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="32">
   <si>
     <t xml:space="preserve">feature=cbf, sf=none</t>
   </si>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">feature=tdf, sf-none</t>
   </si>
   <si>
+    <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=none</t>
+  </si>
+  <si>
     <t xml:space="preserve"> n-fold for data from c :</t>
   </si>
   <si>
@@ -99,13 +102,22 @@
     <t xml:space="preserve">feature=tdf, sf-kb</t>
   </si>
   <si>
+    <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=kb</t>
+  </si>
+  <si>
     <t xml:space="preserve">feature-c_skip, sf=sfm</t>
   </si>
   <si>
     <t xml:space="preserve">feature=tdf, sf-sfm</t>
   </si>
   <si>
+    <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=sfm</t>
+  </si>
+  <si>
     <t xml:space="preserve">feature=td, sf=none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature=td, sf=kb (250)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +489,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1646,10 +1658,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q139"/>
+  <dimension ref="A1:W139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P100" activeCellId="0" sqref="P100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1671,7 +1683,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="29.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,6 +1702,9 @@
       <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -1722,6 +1743,18 @@
       <c r="Q2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1767,6 +1800,21 @@
         <v>0.47</v>
       </c>
       <c r="Q3" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W3" s="0" t="n">
         <v>402</v>
       </c>
     </row>
@@ -1816,6 +1864,21 @@
       <c r="Q4" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1863,6 +1926,21 @@
       <c r="Q5" s="0" t="n">
         <v>1872</v>
       </c>
+      <c r="S5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>1872</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -1910,16 +1988,34 @@
       <c r="Q6" s="0" t="n">
         <v>3833</v>
       </c>
+      <c r="S6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>3833</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,6 +2055,18 @@
       <c r="Q10" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T10" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2004,6 +2112,21 @@
         <v>0.58</v>
       </c>
       <c r="Q11" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W11" s="0" t="n">
         <v>285</v>
       </c>
     </row>
@@ -2053,6 +2176,21 @@
       <c r="Q12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="S12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2100,6 +2238,21 @@
       <c r="Q13" s="0" t="n">
         <v>1521</v>
       </c>
+      <c r="S13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>1521</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -2147,16 +2300,34 @@
       <c r="Q14" s="0" t="n">
         <v>1806</v>
       </c>
+      <c r="S14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>1806</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,6 +2367,18 @@
       <c r="Q18" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2241,6 +2424,21 @@
         <v>0.25</v>
       </c>
       <c r="Q19" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W19" s="0" t="n">
         <v>117</v>
       </c>
     </row>
@@ -2290,6 +2488,21 @@
       <c r="Q20" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="S20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2337,6 +2550,21 @@
       <c r="Q21" s="0" t="n">
         <v>351</v>
       </c>
+      <c r="S21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -2382,6 +2610,21 @@
         <v>0.58</v>
       </c>
       <c r="Q22" s="0" t="n">
+        <v>2027</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W22" s="0" t="n">
         <v>2027</v>
       </c>
     </row>
@@ -2395,6 +2638,9 @@
       <c r="M24" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="S24" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
@@ -2433,6 +2679,18 @@
       <c r="Q25" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -2478,6 +2736,21 @@
         <v>0.56</v>
       </c>
       <c r="Q26" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="W26" s="0" t="n">
         <v>165</v>
       </c>
     </row>
@@ -2527,6 +2800,21 @@
       <c r="Q27" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="S27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -2574,6 +2862,21 @@
       <c r="Q28" s="0" t="n">
         <v>612</v>
       </c>
+      <c r="S28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -2621,16 +2924,34 @@
       <c r="Q29" s="0" t="n">
         <v>1278</v>
       </c>
+      <c r="S29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>1278</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,6 +2991,18 @@
       <c r="Q33" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -2715,6 +3048,21 @@
         <v>0.69</v>
       </c>
       <c r="Q34" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W34" s="0" t="n">
         <v>129</v>
       </c>
     </row>
@@ -2764,6 +3112,21 @@
       <c r="Q35" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="S35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -2811,6 +3174,21 @@
       <c r="Q36" s="0" t="n">
         <v>499</v>
       </c>
+      <c r="S36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -2858,16 +3236,34 @@
       <c r="Q37" s="0" t="n">
         <v>628</v>
       </c>
+      <c r="S37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>628</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,6 +3303,18 @@
       <c r="Q41" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T41" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -2952,6 +3360,21 @@
         <v>0.21</v>
       </c>
       <c r="Q42" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W42" s="0" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3001,6 +3424,21 @@
       <c r="Q43" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="S43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -3048,6 +3486,21 @@
       <c r="Q44" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="S44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -3093,6 +3546,21 @@
         <v>0.59</v>
       </c>
       <c r="Q45" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W45" s="0" t="n">
         <v>650</v>
       </c>
     </row>
@@ -3101,10 +3569,13 @@
         <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,6 +3615,18 @@
       <c r="Q49" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T49" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -3189,6 +3672,21 @@
         <v>0.59</v>
       </c>
       <c r="Q50" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W50" s="0" t="n">
         <v>402</v>
       </c>
     </row>
@@ -3238,6 +3736,21 @@
       <c r="Q51" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="S51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -3285,6 +3798,21 @@
       <c r="Q52" s="0" t="n">
         <v>1872</v>
       </c>
+      <c r="S52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <v>1872</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -3332,16 +3860,34 @@
       <c r="Q53" s="0" t="n">
         <v>3833</v>
       </c>
+      <c r="S53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W53" s="0" t="n">
+        <v>3833</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,6 +3927,18 @@
       <c r="Q57" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T57" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -3426,6 +3984,21 @@
         <v>0.67</v>
       </c>
       <c r="Q58" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W58" s="0" t="n">
         <v>285</v>
       </c>
     </row>
@@ -3475,6 +4048,21 @@
       <c r="Q59" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="S59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -3522,6 +4110,21 @@
       <c r="Q60" s="0" t="n">
         <v>1521</v>
       </c>
+      <c r="S60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W60" s="0" t="n">
+        <v>1521</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -3569,16 +4172,34 @@
       <c r="Q61" s="0" t="n">
         <v>1806</v>
       </c>
+      <c r="S61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T61" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="V61" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W61" s="0" t="n">
+        <v>1806</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,6 +4239,18 @@
       <c r="Q65" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T65" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U65" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W65" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -3663,6 +4296,21 @@
         <v>0.38</v>
       </c>
       <c r="Q66" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="S66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W66" s="0" t="n">
         <v>117</v>
       </c>
     </row>
@@ -3712,6 +4360,21 @@
       <c r="Q67" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="S67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -3759,6 +4422,21 @@
       <c r="Q68" s="0" t="n">
         <v>351</v>
       </c>
+      <c r="S68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U68" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="W68" s="0" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -3804,6 +4482,21 @@
         <v>0.69</v>
       </c>
       <c r="Q69" s="0" t="n">
+        <v>2027</v>
+      </c>
+      <c r="S69" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T69" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U69" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V69" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="W69" s="0" t="n">
         <v>2027</v>
       </c>
     </row>
@@ -3817,6 +4510,9 @@
       <c r="M71" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="S71" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
@@ -3855,6 +4551,18 @@
       <c r="Q72" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T72" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -3900,6 +4608,21 @@
         <v>0.63</v>
       </c>
       <c r="Q73" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="S73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="U73" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="V73" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W73" s="0" t="n">
         <v>165</v>
       </c>
     </row>
@@ -3949,6 +4672,21 @@
       <c r="Q74" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="S74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U74" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="W74" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -3996,6 +4734,21 @@
       <c r="Q75" s="0" t="n">
         <v>612</v>
       </c>
+      <c r="S75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="U75" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="V75" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W75" s="0" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -4043,16 +4796,34 @@
       <c r="Q76" s="0" t="n">
         <v>1278</v>
       </c>
+      <c r="S76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T76" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="U76" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V76" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="W76" s="0" t="n">
+        <v>1278</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="S79" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,6 +4863,18 @@
       <c r="Q80" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T80" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V80" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W80" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -4137,6 +4920,21 @@
         <v>0.72</v>
       </c>
       <c r="Q81" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="W81" s="0" t="n">
         <v>129</v>
       </c>
     </row>
@@ -4186,6 +4984,21 @@
       <c r="Q82" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="S82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -4233,6 +5046,21 @@
       <c r="Q83" s="0" t="n">
         <v>499</v>
       </c>
+      <c r="S83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W83" s="0" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
@@ -4280,16 +5108,34 @@
       <c r="Q84" s="0" t="n">
         <v>628</v>
       </c>
+      <c r="S84" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T84" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="W84" s="0" t="n">
+        <v>628</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,6 +5175,18 @@
       <c r="Q88" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T88" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U88" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V88" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W88" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
@@ -4374,6 +5232,21 @@
         <v>0.32</v>
       </c>
       <c r="Q89" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="S89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="U89" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V89" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W89" s="0" t="n">
         <v>36</v>
       </c>
     </row>
@@ -4423,6 +5296,21 @@
       <c r="Q90" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="S90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U90" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V90" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W90" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
@@ -4470,6 +5358,21 @@
       <c r="Q91" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="S91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="V91" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W91" s="0" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
@@ -4515,6 +5418,21 @@
         <v>0.68</v>
       </c>
       <c r="Q92" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="S92" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T92" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U92" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V92" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="W92" s="0" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4523,10 +5441,13 @@
         <v>12</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,6 +5487,18 @@
       <c r="Q96" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T96" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U96" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V96" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W96" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
@@ -4611,6 +5544,21 @@
         <v>0.62</v>
       </c>
       <c r="Q97" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="S97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U97" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V97" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W97" s="0" t="n">
         <v>402</v>
       </c>
     </row>
@@ -4660,6 +5608,21 @@
       <c r="Q98" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="S98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U98" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V98" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="W98" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -4707,6 +5670,21 @@
       <c r="Q99" s="0" t="n">
         <v>1872</v>
       </c>
+      <c r="S99" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T99" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="U99" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="V99" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W99" s="0" t="n">
+        <v>1872</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -4754,16 +5732,34 @@
       <c r="Q100" s="0" t="n">
         <v>3833</v>
       </c>
+      <c r="S100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T100" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U100" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V100" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="W100" s="0" t="n">
+        <v>3833</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="S103" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4803,6 +5799,18 @@
       <c r="Q104" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T104" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U104" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V104" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W104" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
@@ -4848,6 +5856,21 @@
         <v>0.71</v>
       </c>
       <c r="Q105" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="S105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="U105" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V105" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W105" s="0" t="n">
         <v>285</v>
       </c>
     </row>
@@ -4897,6 +5920,21 @@
       <c r="Q106" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="S106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
@@ -4944,6 +5982,21 @@
       <c r="Q107" s="0" t="n">
         <v>1521</v>
       </c>
+      <c r="S107" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T107" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="U107" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="V107" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W107" s="0" t="n">
+        <v>1521</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
@@ -4991,16 +6044,34 @@
       <c r="Q108" s="0" t="n">
         <v>1806</v>
       </c>
+      <c r="S108" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T108" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="U108" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="V108" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W108" s="0" t="n">
+        <v>1806</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S111" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,6 +6111,18 @@
       <c r="Q112" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T112" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U112" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V112" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W112" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -5085,6 +6168,21 @@
         <v>0.38</v>
       </c>
       <c r="Q113" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="S113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U113" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="V113" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W113" s="0" t="n">
         <v>117</v>
       </c>
     </row>
@@ -5134,6 +6232,21 @@
       <c r="Q114" s="0" t="n">
         <v>1559</v>
       </c>
+      <c r="S114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U114" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V114" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="W114" s="0" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -5181,6 +6294,21 @@
       <c r="Q115" s="0" t="n">
         <v>351</v>
       </c>
+      <c r="S115" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U115" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="V115" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="W115" s="0" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
@@ -5226,6 +6354,21 @@
         <v>0.69</v>
       </c>
       <c r="Q116" s="0" t="n">
+        <v>2027</v>
+      </c>
+      <c r="S116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T116" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U116" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V116" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="W116" s="0" t="n">
         <v>2027</v>
       </c>
     </row>
@@ -5239,6 +6382,9 @@
       <c r="M118" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="S118" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="0" t="s">
@@ -5277,6 +6423,18 @@
       <c r="Q119" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T119" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U119" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V119" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W119" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -5322,6 +6480,21 @@
         <v>0.65</v>
       </c>
       <c r="Q120" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="S120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="U120" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W120" s="0" t="n">
         <v>165</v>
       </c>
     </row>
@@ -5371,6 +6544,21 @@
       <c r="Q121" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="S121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T121" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W121" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -5418,6 +6606,21 @@
       <c r="Q122" s="0" t="n">
         <v>612</v>
       </c>
+      <c r="S122" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T122" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="V122" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="W122" s="0" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
@@ -5465,16 +6668,34 @@
       <c r="Q123" s="0" t="n">
         <v>1278</v>
       </c>
+      <c r="S123" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T123" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="V123" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="W123" s="0" t="n">
+        <v>1278</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="S126" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,6 +6735,18 @@
       <c r="Q127" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T127" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U127" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V127" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W127" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
@@ -5559,6 +6792,21 @@
         <v>0.73</v>
       </c>
       <c r="Q128" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="S128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T128" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="U128" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V128" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="W128" s="0" t="n">
         <v>129</v>
       </c>
     </row>
@@ -5608,6 +6856,21 @@
       <c r="Q129" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="S129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W129" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -5655,6 +6918,21 @@
       <c r="Q130" s="0" t="n">
         <v>499</v>
       </c>
+      <c r="S130" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T130" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="V130" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W130" s="0" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
@@ -5702,16 +6980,34 @@
       <c r="Q131" s="0" t="n">
         <v>628</v>
       </c>
+      <c r="S131" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T131" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="U131" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="V131" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W131" s="0" t="n">
+        <v>628</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="S134" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,6 +7047,18 @@
       <c r="Q135" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="T135" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="U135" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="V135" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="W135" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
@@ -5796,6 +7104,21 @@
         <v>0.35</v>
       </c>
       <c r="Q136" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="S136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T136" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="U136" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="V136" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W136" s="0" t="n">
         <v>36</v>
       </c>
     </row>
@@ -5845,6 +7168,21 @@
       <c r="Q137" s="0" t="n">
         <v>501</v>
       </c>
+      <c r="S137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T137" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="U137" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V137" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W137" s="0" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
@@ -5892,6 +7230,21 @@
       <c r="Q138" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="S138" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T138" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="U138" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V138" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="W138" s="0" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
@@ -5937,6 +7290,21 @@
         <v>0.7</v>
       </c>
       <c r="Q139" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="S139" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T139" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="U139" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V139" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="W139" s="0" t="n">
         <v>650</v>
       </c>
     </row>
@@ -5956,17 +7324,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
@@ -5974,7 +7342,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6143,6 +7511,180 @@
         <v>0.62</v>
       </c>
       <c r="E13" s="0" t="n">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>14396</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>18587</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <v>6196</v>
       </c>
     </row>
